--- a/reference/bander_portal/capture_cols.xlsx
+++ b/reference/bander_portal/capture_cols.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/landbird-dp-workflow/reference/bander_portal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74A7D46-3990-47F1-B9F5-960E1D601B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{C74A7D46-3990-47F1-B9F5-960E1D601B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6952EF62-2840-4BAB-AA62-2FB2640D1342}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="11424" yWindow="-3936" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capture_cols" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="138">
   <si>
     <t>BBL_template</t>
   </si>
@@ -428,12 +441,18 @@
   </si>
   <si>
     <t>recap_no_aux</t>
+  </si>
+  <si>
+    <t>FlagCodeColorIn</t>
+  </si>
+  <si>
+    <t>FlagCodeColorOut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -972,6 +991,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1268,11 +1291,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,7 +2649,7 @@
         <v>65</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2637,7 +2660,7 @@
         <v>65</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
